--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Dom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ShipWorks\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="CA Exp Dom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_lu1" localSheetId="0">#REF!</definedName>
     <definedName name="_lu1">#REF!</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="149">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -283,9 +280,6 @@
     <t>RTC</t>
   </si>
   <si>
-    <t>1756 THOMPSON ST</t>
-  </si>
-  <si>
     <t>Mississauga</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>FEDEX_TUBE</t>
   </si>
   <si>
-    <t>1758 THOMPSON ST</t>
-  </si>
-  <si>
     <t>St-Laurent</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>YOUR_PACKAGING</t>
   </si>
   <si>
-    <t>1751 THOMPSON ST</t>
-  </si>
-  <si>
     <t>Moncton</t>
   </si>
   <si>
@@ -391,9 +379,6 @@
     <t>FIRST_OVERNIGHT</t>
   </si>
   <si>
-    <t>1754 THOMPSON ST</t>
-  </si>
-  <si>
     <t>Montreal</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
     <t>FEDEX_2_DAY</t>
   </si>
   <si>
-    <t>1743 THOMPSON ST</t>
-  </si>
-  <si>
     <t>DANGEROUS_GOODS</t>
   </si>
   <si>
@@ -430,9 +412,6 @@
     <t>FEDEX_1_DAY_FREIGHT</t>
   </si>
   <si>
-    <t>1744 THOMPSON ST</t>
-  </si>
-  <si>
     <t>Winnipeg</t>
   </si>
   <si>
@@ -494,12 +473,18 @@
   </si>
   <si>
     <t>ES-1009</t>
+  </si>
+  <si>
+    <t>SO-1009</t>
+  </si>
+  <si>
+    <t>5985 EXPLORER DR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -576,7 +561,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +610,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -852,6 +843,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -863,7 +867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -920,11 +924,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -943,18 +943,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -972,14 +965,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1059,6 +1048,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,45 +1093,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Total Test Cases Count"/>
-      <sheetName val="US Exp Dom"/>
-      <sheetName val="US Exp Dom-Alcohol"/>
-      <sheetName val="US Exp Intl"/>
-      <sheetName val="US Exp Intl-Alcohol"/>
-      <sheetName val="US Grn Dom Intl And Home Del"/>
-      <sheetName val="Grn Alcohol"/>
-      <sheetName val="CA Exp Dom"/>
-      <sheetName val="CA Exp Intl"/>
-      <sheetName val="CA Grn Dom Intl"/>
-      <sheetName val="IMpB Smartpost test cases"/>
-      <sheetName val="ETD"/>
-      <sheetName val="OneRate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,75 +1397,75 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="67" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="67" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="67" customWidth="1"/>
-    <col min="11" max="12" width="22.42578125" style="67" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="27" customWidth="1"/>
-    <col min="14" max="26" width="22.42578125" style="67" customWidth="1"/>
-    <col min="27" max="27" width="21" style="67" customWidth="1"/>
-    <col min="28" max="29" width="31.5703125" style="67" customWidth="1"/>
-    <col min="30" max="30" width="21" style="67" customWidth="1"/>
-    <col min="31" max="31" width="51.5703125" style="67" customWidth="1"/>
-    <col min="32" max="33" width="65" style="67" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" style="67" customWidth="1"/>
-    <col min="35" max="37" width="25" style="67" customWidth="1"/>
-    <col min="38" max="38" width="23" style="67" customWidth="1"/>
-    <col min="39" max="39" width="22.85546875" style="67" customWidth="1"/>
-    <col min="40" max="40" width="23.42578125" style="67" customWidth="1"/>
-    <col min="41" max="41" width="22.85546875" style="67" customWidth="1"/>
-    <col min="42" max="42" width="33" style="67" customWidth="1"/>
-    <col min="43" max="43" width="22.42578125" style="67" customWidth="1"/>
-    <col min="44" max="45" width="25.42578125" style="67" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" style="67" customWidth="1"/>
-    <col min="47" max="47" width="57.28515625" style="67" customWidth="1"/>
-    <col min="48" max="55" width="22.42578125" style="67" customWidth="1"/>
-    <col min="56" max="57" width="22.7109375" style="67" customWidth="1"/>
-    <col min="58" max="60" width="25" style="67" customWidth="1"/>
-    <col min="61" max="61" width="44.5703125" style="67" customWidth="1"/>
-    <col min="62" max="62" width="38" style="67" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19.140625" style="67" customWidth="1"/>
-    <col min="64" max="64" width="19" style="67" customWidth="1"/>
-    <col min="65" max="65" width="40.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.42578125" style="67" customWidth="1"/>
-    <col min="67" max="67" width="19.5703125" style="67" customWidth="1"/>
-    <col min="68" max="68" width="22.42578125" style="67" customWidth="1"/>
-    <col min="69" max="70" width="24.140625" style="67" customWidth="1"/>
-    <col min="71" max="73" width="26" style="67" customWidth="1"/>
-    <col min="74" max="76" width="22.42578125" style="67" customWidth="1"/>
-    <col min="77" max="77" width="24" style="67" customWidth="1"/>
-    <col min="78" max="78" width="23.85546875" style="67" customWidth="1"/>
-    <col min="79" max="83" width="22.42578125" style="67" customWidth="1"/>
-    <col min="84" max="84" width="27" style="67" customWidth="1"/>
-    <col min="85" max="85" width="27.140625" style="67" customWidth="1"/>
-    <col min="86" max="86" width="26.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="87" max="105" width="22.42578125" style="67" customWidth="1"/>
-    <col min="106" max="111" width="22.85546875" style="67" customWidth="1"/>
-    <col min="112" max="114" width="23.42578125" style="67" customWidth="1"/>
-    <col min="115" max="117" width="24" style="67" customWidth="1"/>
-    <col min="118" max="120" width="26.28515625" style="67" customWidth="1"/>
-    <col min="121" max="123" width="26.42578125" style="67" customWidth="1"/>
-    <col min="124" max="125" width="22.42578125" style="67" customWidth="1"/>
-    <col min="126" max="127" width="23.7109375" style="67" customWidth="1"/>
-    <col min="128" max="128" width="22.42578125" style="67" customWidth="1"/>
-    <col min="129" max="129" width="29" style="67" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="22.42578125" style="67" customWidth="1"/>
-    <col min="132" max="132" width="27.28515625" style="67" customWidth="1"/>
-    <col min="133" max="133" width="27.140625" style="67" customWidth="1"/>
-    <col min="134" max="134" width="28.7109375" style="67" customWidth="1"/>
-    <col min="135" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="17.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="60" customWidth="1"/>
+    <col min="11" max="12" width="22.42578125" style="60" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="25" customWidth="1"/>
+    <col min="14" max="26" width="22.42578125" style="60" customWidth="1"/>
+    <col min="27" max="27" width="21" style="60" customWidth="1"/>
+    <col min="28" max="29" width="31.5703125" style="60" customWidth="1"/>
+    <col min="30" max="30" width="21" style="60" customWidth="1"/>
+    <col min="31" max="31" width="51.5703125" style="60" customWidth="1"/>
+    <col min="32" max="33" width="65" style="60" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" style="60" customWidth="1"/>
+    <col min="35" max="37" width="25" style="60" customWidth="1"/>
+    <col min="38" max="38" width="23" style="60" customWidth="1"/>
+    <col min="39" max="39" width="22.85546875" style="60" customWidth="1"/>
+    <col min="40" max="40" width="23.42578125" style="60" customWidth="1"/>
+    <col min="41" max="41" width="22.85546875" style="60" customWidth="1"/>
+    <col min="42" max="42" width="33" style="60" customWidth="1"/>
+    <col min="43" max="43" width="22.42578125" style="60" customWidth="1"/>
+    <col min="44" max="45" width="25.42578125" style="60" customWidth="1"/>
+    <col min="46" max="46" width="25.5703125" style="60" customWidth="1"/>
+    <col min="47" max="47" width="57.28515625" style="60" customWidth="1"/>
+    <col min="48" max="55" width="22.42578125" style="60" customWidth="1"/>
+    <col min="56" max="57" width="22.7109375" style="60" customWidth="1"/>
+    <col min="58" max="60" width="25" style="60" customWidth="1"/>
+    <col min="61" max="61" width="44.5703125" style="60" customWidth="1"/>
+    <col min="62" max="62" width="38" style="60" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.140625" style="60" customWidth="1"/>
+    <col min="64" max="64" width="19" style="60" customWidth="1"/>
+    <col min="65" max="65" width="40.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.42578125" style="60" customWidth="1"/>
+    <col min="67" max="67" width="19.5703125" style="60" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" style="60" customWidth="1"/>
+    <col min="69" max="70" width="24.140625" style="60" customWidth="1"/>
+    <col min="71" max="73" width="26" style="60" customWidth="1"/>
+    <col min="74" max="76" width="22.42578125" style="60" customWidth="1"/>
+    <col min="77" max="77" width="24" style="60" customWidth="1"/>
+    <col min="78" max="78" width="23.85546875" style="60" customWidth="1"/>
+    <col min="79" max="83" width="22.42578125" style="60" customWidth="1"/>
+    <col min="84" max="84" width="27" style="60" customWidth="1"/>
+    <col min="85" max="85" width="27.140625" style="60" customWidth="1"/>
+    <col min="86" max="86" width="26.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="87" max="105" width="22.42578125" style="60" customWidth="1"/>
+    <col min="106" max="111" width="22.85546875" style="60" customWidth="1"/>
+    <col min="112" max="114" width="23.42578125" style="60" customWidth="1"/>
+    <col min="115" max="117" width="24" style="60" customWidth="1"/>
+    <col min="118" max="120" width="26.28515625" style="60" customWidth="1"/>
+    <col min="121" max="123" width="26.42578125" style="60" customWidth="1"/>
+    <col min="124" max="125" width="22.42578125" style="60" customWidth="1"/>
+    <col min="126" max="127" width="23.7109375" style="60" customWidth="1"/>
+    <col min="128" max="128" width="22.42578125" style="60" customWidth="1"/>
+    <col min="129" max="129" width="29" style="60" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="22.42578125" style="60" customWidth="1"/>
+    <col min="132" max="132" width="27.28515625" style="60" customWidth="1"/>
+    <col min="133" max="133" width="27.140625" style="60" customWidth="1"/>
+    <col min="134" max="134" width="28.7109375" style="60" customWidth="1"/>
+    <col min="135" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="9" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1918,1889 +1895,1889 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="68">
         <v>2</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <v>9052125456</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="68">
+        <v>9052125251</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U3" s="22">
-        <v>9052125251</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Z3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AB3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AC3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22" t="s">
+      <c r="AU3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY3" s="68">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AU3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY3" s="22">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22" t="s">
+      <c r="BE3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BE3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF3" s="22" t="s">
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
-      <c r="BL3" s="22"/>
-      <c r="BM3" s="22"/>
-      <c r="BN3" s="22"/>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22"/>
-      <c r="BR3" s="22"/>
-      <c r="BS3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT3" s="26">
+      <c r="BT3" s="24">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="4" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="69">
+        <v>4</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="28">
+        <v>9052125456</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="69">
+        <v>9012367890</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="X4" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU4" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="31">
+      <c r="AY4" s="69">
         <v>4</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="32">
-        <v>9052125456</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" s="31">
-        <v>9012367890</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31" t="s">
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AU4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY4" s="31">
-        <v>4</v>
-      </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="37"/>
+      <c r="BE4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="32"/>
     </row>
-    <row r="5" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="69">
+        <v>15</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="28">
+        <v>9052125456</v>
+      </c>
+      <c r="N5" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="69">
+        <v>9012367890</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="X5" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="Y5" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU5" s="27">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW5" s="69">
+        <v>12500</v>
+      </c>
+      <c r="AX5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="31">
-        <v>84</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="32">
-        <v>9052125456</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" s="31">
-        <v>9012367890</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="31" t="s">
+      <c r="AY5" s="69">
+        <v>42</v>
+      </c>
+      <c r="AZ5" s="69">
+        <v>25</v>
+      </c>
+      <c r="BA5" s="69">
+        <v>25</v>
+      </c>
+      <c r="BB5" s="69">
+        <v>25</v>
+      </c>
+      <c r="BC5" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB5" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31" t="s">
+      <c r="BD5" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AU5" s="31">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW5" s="31">
-        <v>50000</v>
-      </c>
-      <c r="AX5" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY5" s="31">
-        <v>42</v>
-      </c>
-      <c r="AZ5" s="31">
-        <v>25</v>
-      </c>
-      <c r="BA5" s="31">
-        <v>25</v>
-      </c>
-      <c r="BB5" s="31">
-        <v>25</v>
-      </c>
-      <c r="BC5" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD5" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE5" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="31"/>
-      <c r="BK5" s="31"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="37"/>
+      <c r="BE5" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="27"/>
+      <c r="BK5" s="27"/>
+      <c r="BL5" s="27"/>
+      <c r="BM5" s="27"/>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="27"/>
+      <c r="BR5" s="27"/>
+      <c r="BS5" s="27"/>
+      <c r="BT5" s="32"/>
     </row>
-    <row r="6" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="69">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="28">
+        <v>9052125456</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="69">
+        <v>9012367890</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="X6" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="31" t="s">
+      <c r="Z6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW6" s="69">
+        <v>50000</v>
+      </c>
+      <c r="AX6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY6" s="69">
+        <v>20</v>
+      </c>
+      <c r="AZ6" s="69">
+        <v>30</v>
+      </c>
+      <c r="BA6" s="69">
+        <v>12</v>
+      </c>
+      <c r="BB6" s="69">
+        <v>12</v>
+      </c>
+      <c r="BC6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF6" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="31">
-        <v>20</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="32">
-        <v>9052125456</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="31">
-        <v>9012367890</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB6" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW6" s="31">
-        <v>50000</v>
-      </c>
-      <c r="AX6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY6" s="31">
-        <v>20</v>
-      </c>
-      <c r="AZ6" s="31">
-        <v>30</v>
-      </c>
-      <c r="BA6" s="31">
-        <v>12</v>
-      </c>
-      <c r="BB6" s="31">
-        <v>12</v>
-      </c>
-      <c r="BC6" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD6" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE6" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF6" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31">
-        <v>5</v>
-      </c>
-      <c r="BJ6" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="BK6" s="31"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="31"/>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="31"/>
-      <c r="BT6" s="37"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="27"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="27"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="27"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="32"/>
     </row>
-    <row r="7" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+      <c r="D7" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="69">
         <v>15</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="28">
         <v>9052125456</v>
       </c>
-      <c r="N7" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="31" t="s">
+      <c r="N7" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="Q7" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" s="31" t="s">
+      <c r="U7" s="69">
+        <v>9012367890</v>
+      </c>
+      <c r="V7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="U7" s="31">
-        <v>9012367890</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="31" t="s">
+      <c r="W7" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Y7" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB7" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC7" s="35" t="s">
+      <c r="AB7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="AD7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31" t="s">
+      <c r="AU7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY7" s="69">
+        <v>15</v>
+      </c>
+      <c r="AZ7" s="69">
+        <v>30</v>
+      </c>
+      <c r="BA7" s="69">
+        <v>12</v>
+      </c>
+      <c r="BB7" s="69">
+        <v>12</v>
+      </c>
+      <c r="BC7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD7" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AU7" s="31">
+      <c r="BE7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="27"/>
+      <c r="BJ7" s="27"/>
+      <c r="BK7" s="27"/>
+      <c r="BL7" s="27"/>
+      <c r="BM7" s="27"/>
+      <c r="BN7" s="27"/>
+      <c r="BO7" s="27"/>
+      <c r="BP7" s="27"/>
+      <c r="BQ7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR7" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY7" s="31">
-        <v>15</v>
-      </c>
-      <c r="AZ7" s="31">
-        <v>30</v>
-      </c>
-      <c r="BA7" s="31">
-        <v>12</v>
-      </c>
-      <c r="BB7" s="31">
-        <v>12</v>
-      </c>
-      <c r="BC7" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF7" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="31"/>
-      <c r="BQ7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR7" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="31"/>
-      <c r="BT7" s="37"/>
+      <c r="BS7" s="27"/>
+      <c r="BT7" s="32"/>
     </row>
-    <row r="8" spans="1:72" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="70">
+        <v>15</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="35">
+        <v>9052125456</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" s="70">
+        <v>9052125251</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="X8" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y8" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="40" t="s">
+      <c r="Z8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34">
+        <v>8004633339</v>
+      </c>
+      <c r="AI8" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="40" t="s">
+      <c r="AJ8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="38">
+        <v>9012633035</v>
+      </c>
+      <c r="AL8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM8" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU8" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="40">
-        <v>155</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="41">
-        <v>9052125456</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" s="40">
-        <v>9052125251</v>
-      </c>
-      <c r="V8" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="W8" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA8" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE8" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40">
-        <v>8004633339</v>
-      </c>
-      <c r="AI8" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ8" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK8" s="45">
-        <v>9012633035</v>
-      </c>
-      <c r="AL8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM8" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN8" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO8" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40" t="s">
+      <c r="AY8" s="70">
+        <v>15</v>
+      </c>
+      <c r="AZ8" s="70">
+        <v>25</v>
+      </c>
+      <c r="BA8" s="70">
+        <v>25</v>
+      </c>
+      <c r="BB8" s="70">
+        <v>25</v>
+      </c>
+      <c r="BC8" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD8" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AU8" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY8" s="40">
-        <v>155</v>
-      </c>
-      <c r="AZ8" s="40">
-        <v>25</v>
-      </c>
-      <c r="BA8" s="40">
-        <v>25</v>
-      </c>
-      <c r="BB8" s="40">
-        <v>25</v>
-      </c>
-      <c r="BC8" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD8" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE8" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF8" s="40"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="40"/>
-      <c r="BI8" s="40"/>
-      <c r="BJ8" s="40"/>
-      <c r="BK8" s="40"/>
-      <c r="BL8" s="40"/>
-      <c r="BM8" s="40"/>
-      <c r="BN8" s="40"/>
-      <c r="BO8" s="40"/>
-      <c r="BP8" s="40"/>
-      <c r="BQ8" s="40"/>
-      <c r="BR8" s="40"/>
-      <c r="BS8" s="40"/>
-      <c r="BT8" s="46"/>
+      <c r="BE8" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="39"/>
     </row>
-    <row r="9" spans="1:72" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="70">
+        <v>15</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="35">
+        <v>9052125456</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="70">
+        <v>9052125251</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="40" t="s">
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34">
+        <v>8004633339</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK9" s="38">
+        <v>9012633035</v>
+      </c>
+      <c r="AL9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO9" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="40">
-        <v>150</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="41">
-        <v>9052125456</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="40">
-        <v>9052125251</v>
-      </c>
-      <c r="V9" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="X9" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y9" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE9" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40">
-        <v>8004633339</v>
-      </c>
-      <c r="AI9" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ9" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK9" s="45">
-        <v>9012633035</v>
-      </c>
-      <c r="AL9" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40" t="s">
+      <c r="AY9" s="70">
+        <v>15</v>
+      </c>
+      <c r="AZ9" s="70">
+        <v>25</v>
+      </c>
+      <c r="BA9" s="70">
+        <v>25</v>
+      </c>
+      <c r="BB9" s="70">
+        <v>25</v>
+      </c>
+      <c r="BC9" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AU9" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY9" s="40">
-        <v>150</v>
-      </c>
-      <c r="AZ9" s="40">
-        <v>25</v>
-      </c>
-      <c r="BA9" s="40">
-        <v>25</v>
-      </c>
-      <c r="BB9" s="40">
-        <v>25</v>
-      </c>
-      <c r="BC9" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD9" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE9" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="40"/>
-      <c r="BJ9" s="40"/>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="40"/>
-      <c r="BM9" s="40"/>
-      <c r="BN9" s="40"/>
-      <c r="BO9" s="40"/>
-      <c r="BP9" s="40"/>
-      <c r="BQ9" s="40"/>
-      <c r="BR9" s="40"/>
-      <c r="BS9" s="40"/>
-      <c r="BT9" s="46"/>
+      <c r="BE9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="39"/>
     </row>
-    <row r="10" spans="1:72" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:72" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="40" t="s">
+      <c r="D10" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="G10" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="70">
         <v>20</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="35">
         <v>9052125456</v>
       </c>
-      <c r="N10" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="40" t="s">
+      <c r="N10" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="Q10" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="40" t="s">
+      <c r="U10" s="70">
+        <v>9012367890</v>
+      </c>
+      <c r="V10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="40">
-        <v>9012367890</v>
-      </c>
-      <c r="V10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="W10" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="40" t="s">
+      <c r="W10" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="Y10" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC10" s="44" t="s">
+      <c r="AB10" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE10" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="AD10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE10" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40" t="s">
+      <c r="AU10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW10" s="70">
+        <v>50000</v>
+      </c>
+      <c r="AX10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY10" s="70">
+        <v>20</v>
+      </c>
+      <c r="AZ10" s="70">
+        <v>30</v>
+      </c>
+      <c r="BA10" s="70">
+        <v>12</v>
+      </c>
+      <c r="BB10" s="70">
+        <v>12</v>
+      </c>
+      <c r="BC10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD10" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AU10" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW10" s="40">
-        <v>50000</v>
-      </c>
-      <c r="AX10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY10" s="40">
-        <v>20</v>
-      </c>
-      <c r="AZ10" s="40">
-        <v>30</v>
-      </c>
-      <c r="BA10" s="40">
-        <v>12</v>
-      </c>
-      <c r="BB10" s="40">
-        <v>12</v>
-      </c>
-      <c r="BC10" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF10" s="40"/>
-      <c r="BG10" s="40"/>
-      <c r="BH10" s="40"/>
-      <c r="BI10" s="40"/>
-      <c r="BJ10" s="40"/>
-      <c r="BK10" s="40"/>
-      <c r="BL10" s="40"/>
-      <c r="BM10" s="40"/>
-      <c r="BN10" s="40"/>
-      <c r="BO10" s="40"/>
-      <c r="BP10" s="40"/>
-      <c r="BQ10" s="40"/>
-      <c r="BR10" s="40"/>
-      <c r="BS10" s="40"/>
-      <c r="BT10" s="46"/>
+      <c r="BE10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
+      <c r="BL10" s="34"/>
+      <c r="BM10" s="34"/>
+      <c r="BN10" s="34"/>
+      <c r="BO10" s="34"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="34"/>
+      <c r="BR10" s="34"/>
+      <c r="BS10" s="34"/>
+      <c r="BT10" s="39"/>
     </row>
-    <row r="11" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="70">
+        <v>15</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="35">
+        <v>9052125456</v>
+      </c>
+      <c r="N11" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="70">
+        <v>9012367890</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="X11" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU11" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="40">
+      <c r="AY11" s="70">
         <v>15</v>
       </c>
-      <c r="K11" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="41">
-        <v>9052125456</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="40">
-        <v>9012367890</v>
-      </c>
-      <c r="V11" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="W11" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y11" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC11" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="40" t="s">
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AU11" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY11" s="40">
-        <v>15</v>
-      </c>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="40"/>
-      <c r="BB11" s="40"/>
-      <c r="BC11" s="40"/>
-      <c r="BD11" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE11" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF11" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="BI11" s="40"/>
-      <c r="BJ11" s="40"/>
-      <c r="BK11" s="40"/>
-      <c r="BL11" s="40"/>
-      <c r="BM11" s="40"/>
-      <c r="BN11" s="40"/>
-      <c r="BO11" s="40"/>
-      <c r="BP11" s="40"/>
-      <c r="BQ11" s="40"/>
-      <c r="BR11" s="40"/>
-      <c r="BS11" s="40"/>
-      <c r="BT11" s="46"/>
+      <c r="BE11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF11" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="39"/>
     </row>
-    <row r="12" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="70">
+        <v>15</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="35">
+        <v>9052125456</v>
+      </c>
+      <c r="N12" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="70">
+        <v>9012367890</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="X12" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU12" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="40">
+      <c r="AY12" s="70">
         <v>15</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="41">
-        <v>9052125456</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="T12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="40">
-        <v>9012367890</v>
-      </c>
-      <c r="V12" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="W12" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="X12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y12" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC12" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40" t="s">
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="34"/>
+      <c r="BD12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AU12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY12" s="40">
-        <v>15</v>
-      </c>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="40"/>
-      <c r="BC12" s="40"/>
-      <c r="BD12" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE12" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF12" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="BG12" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH12" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="40"/>
-      <c r="BK12" s="40"/>
-      <c r="BL12" s="40"/>
-      <c r="BM12" s="40"/>
-      <c r="BN12" s="40"/>
-      <c r="BO12" s="40"/>
-      <c r="BP12" s="40"/>
-      <c r="BQ12" s="40"/>
-      <c r="BR12" s="40"/>
-      <c r="BS12" s="40"/>
-      <c r="BT12" s="46"/>
+      <c r="BE12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF12" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH12" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="34"/>
+      <c r="BR12" s="34"/>
+      <c r="BS12" s="34"/>
+      <c r="BT12" s="39"/>
     </row>
-    <row r="13" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="49" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51" t="s">
+      <c r="D13" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="44">
+        <v>15</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="44">
+        <v>9052125456</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="44">
+        <v>9052125251</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="51" t="s">
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="44">
+        <v>8004633339</v>
+      </c>
+      <c r="AI13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ13" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK13" s="48">
+        <v>9012633035</v>
+      </c>
+      <c r="AL13" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM13" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN13" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO13" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU13" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="51">
-        <v>1</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="51">
-        <v>9052125456</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" s="51">
-        <v>9052125251</v>
-      </c>
-      <c r="V13" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="W13" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="X13" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y13" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA13" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC13" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="51">
-        <v>8004633339</v>
-      </c>
-      <c r="AI13" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ13" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK13" s="55">
-        <v>9012633035</v>
-      </c>
-      <c r="AL13" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM13" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN13" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO13" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51" t="s">
+      <c r="AY13" s="44">
+        <v>15</v>
+      </c>
+      <c r="AZ13" s="44">
+        <v>25</v>
+      </c>
+      <c r="BA13" s="44">
+        <v>25</v>
+      </c>
+      <c r="BB13" s="44">
+        <v>25</v>
+      </c>
+      <c r="BC13" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AU13" s="51">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY13" s="51">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="51">
-        <v>25</v>
-      </c>
-      <c r="BA13" s="51">
-        <v>25</v>
-      </c>
-      <c r="BB13" s="51">
-        <v>25</v>
-      </c>
-      <c r="BC13" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF13" s="55"/>
-      <c r="BG13" s="56"/>
-      <c r="BH13" s="56"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="51"/>
-      <c r="BR13" s="51"/>
-      <c r="BS13" s="51"/>
-      <c r="BT13" s="57"/>
+      <c r="BE13" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="44"/>
+      <c r="BS13" s="44"/>
+      <c r="BT13" s="50"/>
     </row>
-    <row r="14" spans="1:72" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" s="25" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60" t="s">
+      <c r="D14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="60" t="s">
+      <c r="G14" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="53">
+        <v>15</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="53">
+        <v>9052125456</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="53">
+        <v>9012367890</v>
+      </c>
+      <c r="V14" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB14" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC14" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU14" s="53">
         <v>1</v>
       </c>
-      <c r="K14" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="60">
-        <v>9052125456</v>
-      </c>
-      <c r="N14" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="O14" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="T14" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="60">
-        <v>9012367890</v>
-      </c>
-      <c r="V14" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="W14" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="X14" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y14" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA14" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB14" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC14" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD14" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60" t="s">
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY14" s="53">
+        <v>15</v>
+      </c>
+      <c r="AZ14" s="53">
+        <v>30</v>
+      </c>
+      <c r="BA14" s="53">
+        <v>12</v>
+      </c>
+      <c r="BB14" s="53">
+        <v>12</v>
+      </c>
+      <c r="BC14" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD14" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AU14" s="60">
+      <c r="BE14" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="53"/>
+      <c r="BJ14" s="53"/>
+      <c r="BK14" s="53"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="53"/>
+      <c r="BQ14" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY14" s="60">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="60">
-        <v>30</v>
-      </c>
-      <c r="BA14" s="60">
-        <v>12</v>
-      </c>
-      <c r="BB14" s="60">
-        <v>12</v>
-      </c>
-      <c r="BC14" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD14" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE14" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF14" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="60"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR14" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="60"/>
-      <c r="BT14" s="66"/>
+      <c r="BS14" s="53"/>
+      <c r="BT14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Dom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="186">
   <si>
     <t>CUSTOMER_REFERENCE</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>RequestedShipment.ExpressFreightDetail</t>
+  </si>
+  <si>
+    <t>BookingConfirmationNumber</t>
+  </si>
+  <si>
+    <t>ShippersLoadAndCount</t>
   </si>
 </sst>
 </file>
@@ -2366,10 +2375,10 @@
   </sheetPr>
   <dimension ref="A1:JL641"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CH1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CK1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="CK3" sqref="CK3:CK14"/>
+      <selection pane="bottomLeft" activeCell="CM4" sqref="CM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2707,8 +2716,12 @@
       <c r="CK1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
+      <c r="CL1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="CM1" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="CN1" s="20"/>
     </row>
     <row r="2" spans="1:92" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2973,8 +2986,12 @@
       <c r="CK2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
+      <c r="CL2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM2" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="CN2" s="7"/>
     </row>
     <row r="3" spans="1:92" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3145,6 +3162,7 @@
       <c r="CK3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CM3" s="44"/>
     </row>
     <row r="4" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="73" t="b">
@@ -3310,6 +3328,8 @@
       <c r="CK4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL4" s="30"/>
+      <c r="CM4" s="30"/>
     </row>
     <row r="5" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73" t="b">
@@ -3489,8 +3509,10 @@
       <c r="CK5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="CL5" s="30"/>
+      <c r="CM5" s="30"/>
+    </row>
+    <row r="6" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73" t="b">
         <v>0</v>
       </c>
@@ -3696,6 +3718,8 @@
       <c r="CK6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL6" s="30"/>
+      <c r="CM6" s="30"/>
     </row>
     <row r="7" spans="1:92" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73" t="b">
@@ -3885,6 +3909,12 @@
       <c r="CK7" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL7" s="44">
+        <v>1234567890</v>
+      </c>
+      <c r="CM7" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:92" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73" t="b">
@@ -4074,6 +4104,8 @@
       <c r="CK8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL8" s="35"/>
+      <c r="CM8" s="35"/>
     </row>
     <row r="9" spans="1:92" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73" t="b">
@@ -4251,6 +4283,8 @@
       <c r="CK9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL9" s="35"/>
+      <c r="CM9" s="35"/>
     </row>
     <row r="10" spans="1:92" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="73" t="b">
@@ -4416,6 +4450,8 @@
       <c r="CK10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="35"/>
     </row>
     <row r="11" spans="1:92" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73" t="b">
@@ -4583,6 +4619,8 @@
       <c r="CK11" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL11" s="35"/>
+      <c r="CM11" s="35"/>
     </row>
     <row r="12" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="73" t="b">
@@ -4772,6 +4810,8 @@
       <c r="CK12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL12" s="61"/>
+      <c r="CM12" s="61"/>
     </row>
     <row r="13" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73" t="b">
@@ -4981,6 +5021,8 @@
       <c r="CK13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL13" s="70"/>
+      <c r="CM13" s="70"/>
     </row>
     <row r="14" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="73" t="b">
@@ -5154,6 +5196,8 @@
       <c r="CK14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CL14" s="52"/>
+      <c r="CM14" s="52"/>
     </row>
     <row r="15" spans="1:92" s="2" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
